--- a/plots/Performance test.xlsx
+++ b/plots/Performance test.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">Number of user </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Number of CPU</t>
   </si>
@@ -35,9 +27,6 @@
     <t>Latency (nanos) :</t>
   </si>
   <si>
-    <t>Throughput (request per nanos):</t>
-  </si>
-  <si>
     <t>Average:</t>
   </si>
   <si>
@@ -54,13 +43,115 @@
   </si>
   <si>
     <t>t2.xlarge</t>
+  </si>
+  <si>
+    <t>Number of concurrent users (Each user execute 300 concurrent requests) (Thread Poll size 10 on both sides)</t>
+  </si>
+  <si>
+    <t>Throughput (request per second):</t>
+  </si>
+  <si>
+    <t>Client PC 1</t>
+  </si>
+  <si>
+    <t>Client PC 2 (with lower specs)</t>
+  </si>
+  <si>
+    <t>Amazone AWS Ubuntu Virtual Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Plot A</t>
+  </si>
+  <si>
+    <t>Plot B</t>
+  </si>
+  <si>
+    <t>Plot C</t>
+  </si>
+  <si>
+    <t>Plot D</t>
+  </si>
+  <si>
+    <t>Ram Usage (MB):</t>
+  </si>
+  <si>
+    <t>Thread Poll size on both sides</t>
+  </si>
+  <si>
+    <t>Amazone AWS Ubuntu Virtual Machine Number of concurrent users (Each user execute 300 concurrent requests) ( 10 users)</t>
+  </si>
+  <si>
+    <t>with t2.medium</t>
+  </si>
+  <si>
+    <t>Requests per second</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU Usage (1 is full Load): </t>
+  </si>
+  <si>
+    <t>We can serve maximum 9 requests per second due to network bottleneck</t>
+  </si>
+  <si>
+    <t>Plot E</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Avarages for plots</t>
+  </si>
+  <si>
+    <t>epl425 Exercise 1 2017 Performance Tests Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contributors : abecket , ssavva05</t>
+  </si>
+  <si>
+    <t>https://github.com/ssavva05/epl425exercise1.git</t>
+  </si>
+  <si>
+    <t>Average Memory Use (MB)</t>
+  </si>
+  <si>
+    <t>Average Cpu Usage (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latency (in nano seconds) </t>
+  </si>
+  <si>
+    <t>Throughput   (request per second)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +181,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +227,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -185,25 +305,157 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -213,25 +465,102 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -248,20 +577,953 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>502735625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>514855585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>510272257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503607866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>514997788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>509293824.19999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>480420990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>504245801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504510236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>492015423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>514008622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>499040214.39999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="44705280"/>
+        <c:axId val="79177408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44705280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79177408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79177408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44705280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10866808336806888"/>
+          <c:y val="7.4074012999683927E-2"/>
+          <c:w val="0.77038565811767834"/>
+          <c:h val="0.85054623407676133"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$11:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>687770887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>696178292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>727376255</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>694607866</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>694097788</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>700006217.60000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$11:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>681204127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>694097788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684245801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>693510236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>683607866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>687333163.60000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="48756736"/>
+        <c:axId val="57377920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="48756736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57377920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57377920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48756736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="48757248"/>
+        <c:axId val="79182592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="48757248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79182592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79182592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48757248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Memory In MB</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$132:$J$134</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$136:$K$138</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="58564608"/>
+        <c:axId val="136901696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="58564608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136901696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136901696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58564608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Cpu Usage %</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$132:$J$134</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$132:$K$134</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="69280768"/>
+        <c:axId val="69673536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69280768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69673536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69673536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69280768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2395325</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1188207</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -278,8 +1540,310 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2695574"/>
-          <a:ext cx="3605000" cy="4133851"/>
+          <a:off x="1209675" y="7677149"/>
+          <a:ext cx="3197982" cy="3667125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1481137</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1471611</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1462088</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1188207</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="11553825"/>
+          <a:ext cx="3197982" cy="3667125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1264407</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="15401925"/>
+          <a:ext cx="3197982" cy="3667125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1245357</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="19230975"/>
+          <a:ext cx="3197982" cy="3667125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1219199</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>185145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228724" y="23021925"/>
+          <a:ext cx="3209925" cy="3680820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -334,7 +1898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,7 +1933,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,7 +2110,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,230 +2118,861 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="36"/>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>300</v>
+      </c>
+      <c r="G4" s="17">
+        <v>500</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="3">
-        <v>300</v>
-      </c>
-      <c r="G3" s="3">
-        <v>500</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>502735625</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>514855585</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>510272257</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>503607866</v>
       </c>
-      <c r="G4" s="1">
-        <v>514097788</v>
-      </c>
-      <c r="H4" s="1">
-        <f>AVERAGE(C4:G4)</f>
-        <v>509113824.19999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>480420990</v>
-      </c>
-      <c r="D5" s="1">
-        <v>504245801</v>
-      </c>
-      <c r="E5" s="1">
-        <v>504510236</v>
-      </c>
-      <c r="F5" s="1">
-        <v>492015423</v>
-      </c>
       <c r="G5" s="1">
-        <v>514458622</v>
+        <v>514997788</v>
       </c>
       <c r="H5" s="1">
         <f>AVERAGE(C5:G5)</f>
-        <v>499130214.39999998</v>
+        <v>509293824.19999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>480420990</v>
+      </c>
+      <c r="D6" s="1">
+        <v>504245801</v>
+      </c>
+      <c r="E6" s="1">
+        <v>504510236</v>
+      </c>
+      <c r="F6" s="1">
+        <v>492015423</v>
+      </c>
+      <c r="G6" s="1">
+        <v>514008622</v>
+      </c>
+      <c r="H6" s="1">
+        <f>AVERAGE(C6:G6)</f>
+        <v>499040214.39999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>300</v>
+      </c>
+      <c r="G11" s="17">
+        <v>500</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>687770887</v>
+      </c>
+      <c r="D12">
+        <v>696178292</v>
+      </c>
+      <c r="E12">
+        <v>727376255</v>
+      </c>
+      <c r="F12" s="1">
+        <v>694607866</v>
+      </c>
+      <c r="G12" s="1">
+        <v>694097788</v>
+      </c>
+      <c r="H12" s="1">
+        <f>AVERAGE(C12:G12)</f>
+        <v>700006217.60000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>681204127</v>
+      </c>
+      <c r="D13" s="1">
+        <v>694097788</v>
+      </c>
+      <c r="E13" s="1">
+        <v>684245801</v>
+      </c>
+      <c r="F13" s="1">
+        <v>693510236</v>
+      </c>
+      <c r="G13" s="1">
+        <v>683607866</v>
+      </c>
+      <c r="H13" s="1">
+        <f>AVERAGE(C13:G13)</f>
+        <v>687333163.60000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>300</v>
+      </c>
+      <c r="G18" s="17">
+        <v>500</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1">
+        <f>AVERAGE(C19:G19)</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1">
+        <f>AVERAGE(C20:G20)</f>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3">
         <v>15</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E25" s="3">
         <v>50</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>500</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="F25" s="3">
+        <v>200</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="e">
-        <f>AVERAGE(C11:G11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>8</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>9</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3">
+        <v>50</v>
+      </c>
+      <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>7</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="19">
+        <v>120</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="e">
-        <f>AVERAGE(C12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="19">
+        <v>130</v>
+      </c>
+      <c r="E35">
+        <v>150</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36">
+        <v>160</v>
+      </c>
+      <c r="G36">
+        <v>170</v>
+      </c>
+      <c r="H36" s="20">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="37"/>
+    </row>
+    <row r="59" spans="4:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="37"/>
+    </row>
+    <row r="80" spans="4:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="39"/>
+    </row>
+    <row r="101" spans="4:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="37"/>
+    </row>
+    <row r="121" spans="3:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="37"/>
+    </row>
+    <row r="129" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I129" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J129" s="23"/>
+      <c r="K129" s="24"/>
+    </row>
+    <row r="130" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I130" s="28"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="30"/>
+    </row>
+    <row r="131" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I131" s="28"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I132" s="25">
+        <v>7</v>
+      </c>
+      <c r="J132" s="15"/>
+      <c r="K132" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I133" s="25">
+        <v>8</v>
+      </c>
+      <c r="J133" s="15"/>
+      <c r="K133" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I134" s="25">
+        <v>9</v>
+      </c>
+      <c r="J134" s="15"/>
+      <c r="K134" s="31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I135" s="28"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I136" s="25">
+        <v>7</v>
+      </c>
+      <c r="J136" s="15"/>
+      <c r="K136" s="31">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I137" s="25">
+        <v>8</v>
+      </c>
+      <c r="J137" s="15"/>
+      <c r="K137" s="31">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I138" s="26">
+        <v>9</v>
+      </c>
+      <c r="J138" s="27"/>
+      <c r="K138" s="32">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="42">
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C21:G21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://github.com/abecket"/>
+    <hyperlink ref="D1" r:id="rId2" display="https://github.com/ssavva05/epl425exercise1"/>
+    <hyperlink ref="G1" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>